--- a/cinemas/cinemas.xlsx
+++ b/cinemas/cinemas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\winston\Travel-Tales-Tickets\cinemas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/winston/Documents/Travel-Tales-Tickets/cinemas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CFA537-8859-4600-8444-F6092ABDCB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A820BB-F952-3544-B46B-F186CE7C6671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2543" yWindow="2543" windowWidth="21600" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="312">
   <si>
     <t>movie</t>
   </si>
@@ -6051,38 +6051,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保利万和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>CFR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>国际影城（钱江世纪城店）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>8</t>
     </r>
     <r>
@@ -6178,10 +6146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保利万和CFR国际影城（钱江世纪城店）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6号厅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6230,6 +6194,101 @@
         <charset val="134"/>
       </rPr>
       <t>排9号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金的音像店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5号厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>排</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>座</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘船而去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国语</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万达影城杭州星耀城店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保利万和CFR国际影城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京当代</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>MOMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>百老汇电影中心影院</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6243,7 +6302,7 @@
     <numFmt numFmtId="177" formatCode="h:mm;@"/>
     <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6296,6 +6355,20 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -6430,7 +6503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="178" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6513,6 +6586,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6906,9 +6985,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83D896C7-C124-4151-A965-94EC2F89D290}" name="表1" displayName="表1" ref="A1:I96" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I96">
-    <sortCondition descending="1" ref="B10:B96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83D896C7-C124-4151-A965-94EC2F89D290}" name="表1" displayName="表1" ref="A1:I98" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I98">
+    <sortCondition descending="1" ref="B12:B98"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{AA0D7FC8-FC0F-4E58-8A57-83F065C6D003}" name="movie" dataDxfId="8"/>
@@ -7188,27 +7267,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" style="19" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.46484375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.19921875" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.46484375" style="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.86328125" style="19"/>
+    <col min="7" max="7" width="14.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7237,201 +7316,197 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" ht="15" thickBot="1">
       <c r="A2" s="24" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B2" s="10">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="C2" s="11">
-        <v>0.81944444444444453</v>
+        <v>0.63194444444444442</v>
       </c>
       <c r="D2" s="2">
         <v>30</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>293</v>
+        <v>305</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>308</v>
       </c>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" ht="15" thickBot="1">
       <c r="A3" s="24" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B3" s="10">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="C3" s="11">
-        <v>0.77083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D3" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="H3" s="27"/>
+        <v>305</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>307</v>
+      </c>
       <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" ht="15" thickBot="1">
       <c r="A4" s="24" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B4" s="10">
-        <v>45400</v>
+        <v>45407</v>
       </c>
       <c r="C4" s="11">
-        <v>0.64236111111111105</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="D4" s="2">
         <v>30</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>262</v>
+      <c r="E4" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>299</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" ht="15" thickBot="1">
       <c r="A5" s="24" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B5" s="10">
-        <v>45393</v>
+        <v>45406</v>
       </c>
       <c r="C5" s="11">
-        <v>0.59027777777777779</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D5" s="2">
-        <v>30</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>291</v>
+        <v>45</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>296</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>294</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="H5" s="27"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" ht="15" thickBot="1">
       <c r="A6" s="24" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B6" s="10">
-        <v>45363</v>
+        <v>45400</v>
       </c>
       <c r="C6" s="11">
-        <v>0.79166666666666663</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="D6" s="2">
-        <v>98</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>286</v>
+        <v>30</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" s="12"/>
+        <v>301</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>292</v>
+      </c>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="26" t="s">
-        <v>282</v>
+    <row r="7" spans="1:9" ht="15" thickBot="1">
+      <c r="A7" s="24" t="s">
+        <v>289</v>
       </c>
       <c r="B7" s="10">
-        <v>45224</v>
+        <v>45393</v>
       </c>
       <c r="C7" s="11">
-        <v>0.77083333333333337</v>
+        <v>0.59027777777777779</v>
       </c>
       <c r="D7" s="2">
         <v>30</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>278</v>
+        <v>310</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>290</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>284</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" ht="15" thickBot="1">
       <c r="A8" s="24" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B8" s="10">
-        <v>45210</v>
+        <v>45363</v>
       </c>
       <c r="C8" s="11">
-        <v>0.77083333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D8" s="2">
-        <v>30</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>278</v>
+        <v>98</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>287</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>280</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>281</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>264</v>
+    <row r="9" spans="1:9" ht="16" thickBot="1">
+      <c r="A9" s="26" t="s">
+        <v>282</v>
       </c>
       <c r="B9" s="10">
-        <v>45197</v>
+        <v>45224</v>
       </c>
       <c r="C9" s="11">
         <v>0.77083333333333337</v>
@@ -7439,312 +7514,314 @@
       <c r="D9" s="2">
         <v>30</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>265</v>
+      <c r="E9" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>278</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="23" t="s">
-        <v>274</v>
+        <v>283</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>284</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="9" t="s">
-        <v>266</v>
+    <row r="10" spans="1:9" ht="15" thickBot="1">
+      <c r="A10" s="24" t="s">
+        <v>276</v>
       </c>
       <c r="B10" s="10">
-        <v>45182</v>
+        <v>45210</v>
       </c>
       <c r="C10" s="11">
         <v>0.77083333333333337</v>
       </c>
       <c r="D10" s="2">
+        <v>30</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1">
+      <c r="A11" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B11" s="10">
+        <v>45197</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="23" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1">
+      <c r="A12" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="10">
+        <v>45182</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D12" s="2">
         <v>20</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G12" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="9" t="s">
+    <row r="13" spans="1:9" ht="15" thickBot="1">
+      <c r="A13" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B13" s="10">
         <v>45151</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C13" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="2">
         <v>70</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G13" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H13" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I13" s="13"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="9" t="s">
+    <row r="14" spans="1:9" ht="15" thickBot="1">
+      <c r="A14" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B14" s="10">
         <v>45138</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C14" s="11">
         <v>0.77777777777777779</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2">
         <f>40+3</f>
         <v>43</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E14" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G14" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="9" t="s">
+    <row r="15" spans="1:9" ht="15" thickBot="1">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B15" s="10">
         <v>45095</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C15" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D15" s="2">
         <v>90</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H15" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I15" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
+    <row r="16" spans="1:9" ht="15" thickBot="1">
+      <c r="A16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B16" s="10">
         <v>45087</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C16" s="11">
         <v>0.78472222222222221</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D16" s="2">
         <v>66</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="10">
-        <v>45059</v>
-      </c>
-      <c r="C15" s="11">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D15" s="2">
-        <v>20</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="10">
-        <v>45053</v>
-      </c>
-      <c r="C16" s="11">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="D16" s="2">
-        <v>80</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" ht="16" thickBot="1">
       <c r="A17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="10">
+        <v>45059</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" thickBot="1">
+      <c r="A18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="10">
+        <v>45053</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D18" s="2">
+        <v>80</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1">
+      <c r="A19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B19" s="10">
         <v>45043</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C19" s="11">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D19" s="2">
         <v>80</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I19" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="9" t="s">
+    <row r="20" spans="1:9" ht="16" thickBot="1">
+      <c r="A20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B20" s="10">
         <v>45021</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C20" s="11">
         <v>0.77083333333333337</v>
-      </c>
-      <c r="D18" s="2">
-        <v>20</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="10">
-        <v>45017</v>
-      </c>
-      <c r="C19" s="11">
-        <v>0.60416666666666663</v>
-      </c>
-      <c r="D19" s="2">
-        <v>60</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="10">
-        <v>45007</v>
-      </c>
-      <c r="C20" s="11">
-        <v>0.75</v>
       </c>
       <c r="D20" s="2">
         <v>20</v>
@@ -7756,7 +7833,7 @@
         <v>38</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>40</v>
@@ -7765,41 +7842,39 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="9" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B21" s="10">
-        <v>45000</v>
+        <v>45017</v>
       </c>
       <c r="C21" s="11">
-        <v>0.77083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="D21" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>52</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="I21" s="13"/>
     </row>
-    <row r="22" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" ht="16" thickBot="1">
       <c r="A22" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B22" s="10">
-        <v>44993</v>
+        <v>45007</v>
       </c>
       <c r="C22" s="11">
         <v>0.75</v>
@@ -7814,7 +7889,7 @@
         <v>38</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>40</v>
@@ -7823,12 +7898,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" ht="16" thickBot="1">
       <c r="A23" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B23" s="10">
-        <v>44986</v>
+        <v>45000</v>
       </c>
       <c r="C23" s="11">
         <v>0.77083333333333337</v>
@@ -7843,7 +7918,7 @@
         <v>38</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>40</v>
@@ -7852,39 +7927,41 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="16" thickBot="1">
       <c r="A24" s="9" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="10">
-        <v>44982</v>
+        <v>44993</v>
       </c>
       <c r="C24" s="11">
-        <v>0.84375</v>
+        <v>0.75</v>
       </c>
       <c r="D24" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I24" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="25" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="16" thickBot="1">
       <c r="A25" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B25" s="10">
-        <v>44979</v>
+        <v>44986</v>
       </c>
       <c r="C25" s="11">
         <v>0.77083333333333337</v>
@@ -7899,7 +7976,7 @@
         <v>38</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>40</v>
@@ -7908,18 +7985,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" ht="15" thickBot="1">
       <c r="A26" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B26" s="10">
-        <v>44976</v>
+        <v>44982</v>
       </c>
       <c r="C26" s="11">
-        <v>0.83333333333333337</v>
+        <v>0.84375</v>
       </c>
       <c r="D26" s="2">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>42</v>
@@ -7928,52 +8005,54 @@
         <v>43</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I26" s="13"/>
     </row>
-    <row r="27" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" ht="16" thickBot="1">
       <c r="A27" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10">
-        <v>44969</v>
+        <v>44979</v>
       </c>
       <c r="C27" s="11">
-        <v>0.45833333333333331</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D27" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" ht="15" thickBot="1">
       <c r="A28" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B28" s="10">
-        <v>44941</v>
+        <v>44976</v>
       </c>
       <c r="C28" s="11">
-        <v>0.79166666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D28" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>42</v>
@@ -7982,25 +8061,25 @@
         <v>43</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="15" thickBot="1">
       <c r="A29" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B29" s="10">
-        <v>44941</v>
+        <v>44969</v>
       </c>
       <c r="C29" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D29" s="2">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>42</v>
@@ -8009,25 +8088,25 @@
         <v>43</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I29" s="13"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B30" s="10">
         <v>44941</v>
       </c>
       <c r="C30" s="11">
-        <v>0.5625</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D30" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>42</v>
@@ -8036,25 +8115,25 @@
         <v>43</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I30" s="13"/>
     </row>
-    <row r="31" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" ht="15" thickBot="1">
       <c r="A31" s="9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B31" s="10">
-        <v>44939</v>
+        <v>44941</v>
       </c>
       <c r="C31" s="11">
-        <v>0.79166666666666663</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D31" s="2">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>42</v>
@@ -8063,22 +8142,22 @@
         <v>43</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I31" s="13"/>
     </row>
-    <row r="32" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" ht="15" thickBot="1">
       <c r="A32" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B32" s="10">
-        <v>44934</v>
+        <v>44941</v>
       </c>
       <c r="C32" s="11">
-        <v>0.79166666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="D32" s="2">
         <v>50</v>
@@ -8090,25 +8169,25 @@
         <v>43</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I32" s="13"/>
     </row>
-    <row r="33" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" ht="15" thickBot="1">
       <c r="A33" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B33" s="10">
-        <v>44934</v>
+        <v>44939</v>
       </c>
       <c r="C33" s="11">
-        <v>0.67708333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D33" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>42</v>
@@ -8117,22 +8196,22 @@
         <v>43</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I33" s="13"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" ht="15" thickBot="1">
       <c r="A34" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B34" s="10">
         <v>44934</v>
       </c>
       <c r="C34" s="11">
-        <v>0.5625</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D34" s="2">
         <v>50</v>
@@ -8144,22 +8223,22 @@
         <v>43</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" ht="15" thickBot="1">
       <c r="A35" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B35" s="10">
         <v>44934</v>
       </c>
       <c r="C35" s="11">
-        <v>0.45833333333333331</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="D35" s="2">
         <v>50</v>
@@ -8171,185 +8250,181 @@
         <v>43</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I35" s="13"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" ht="15" thickBot="1">
       <c r="A36" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B36" s="10">
-        <v>44933</v>
+        <v>44934</v>
       </c>
       <c r="C36" s="11">
-        <v>0.77083333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="D36" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I36" s="13"/>
     </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" ht="15" thickBot="1">
       <c r="A37" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B37" s="10">
-        <v>44932</v>
+        <v>44934</v>
       </c>
       <c r="C37" s="11">
-        <v>0.77083333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D37" s="2">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I37" s="13"/>
     </row>
-    <row r="38" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" ht="16" thickBot="1">
       <c r="A38" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B38" s="10">
-        <v>44878</v>
+        <v>44933</v>
       </c>
       <c r="C38" s="11">
-        <v>0.6875</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D38" s="2">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" ht="16" thickBot="1">
       <c r="A39" s="9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B39" s="10">
-        <v>44878</v>
+        <v>44932</v>
       </c>
       <c r="C39" s="11">
-        <v>0.56944444444444442</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D39" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I39" s="13"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" ht="15" thickBot="1">
       <c r="A40" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="10">
+        <v>44878</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="D40" s="2">
+        <v>70</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" thickBot="1">
+      <c r="A41" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="10">
+        <v>44878</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D41" s="2">
+        <v>60</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="1:9" ht="16" thickBot="1">
+      <c r="A42" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B42" s="10">
         <v>44867</v>
-      </c>
-      <c r="C40" s="11">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D40" s="2">
-        <v>20</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B41" s="10">
-        <v>44860</v>
-      </c>
-      <c r="C41" s="11">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D41" s="2">
-        <v>20</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B42" s="10">
-        <v>44846</v>
       </c>
       <c r="C42" s="11">
         <v>0.77083333333333337</v>
@@ -8364,7 +8439,7 @@
         <v>38</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H42" s="12" t="s">
         <v>40</v>
@@ -8373,12 +8448,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:9" ht="16" thickBot="1">
       <c r="A43" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B43" s="10">
-        <v>44839</v>
+        <v>44860</v>
       </c>
       <c r="C43" s="11">
         <v>0.77083333333333337</v>
@@ -8393,7 +8468,7 @@
         <v>38</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>40</v>
@@ -8402,12 +8477,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" ht="16" thickBot="1">
       <c r="A44" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B44" s="10">
-        <v>44832</v>
+        <v>44846</v>
       </c>
       <c r="C44" s="11">
         <v>0.77083333333333337</v>
@@ -8422,7 +8497,7 @@
         <v>38</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>40</v>
@@ -8431,99 +8506,103 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:9" ht="16" thickBot="1">
       <c r="A45" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="10">
+        <v>44839</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D45" s="2">
+        <v>20</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="16" thickBot="1">
+      <c r="A46" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44832</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D46" s="2">
+        <v>20</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" thickBot="1">
+      <c r="A47" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B47" s="10">
         <v>44787</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C47" s="11">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D47" s="2">
         <v>37</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F47" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G47" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="13" t="s">
+      <c r="H47" s="12"/>
+      <c r="I47" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="9" t="s">
+    <row r="48" spans="1:9" ht="15" thickBot="1">
+      <c r="A48" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B48" s="10">
         <v>44735</v>
-      </c>
-      <c r="C46" s="11">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D46" s="2">
-        <v>40</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="10">
-        <v>44722</v>
-      </c>
-      <c r="C47" s="11">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D47" s="2">
-        <v>60</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="B48" s="10">
-        <v>44721</v>
       </c>
       <c r="C48" s="11">
         <v>0.79166666666666663</v>
       </c>
       <c r="D48" s="2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E48" s="12" t="s">
         <v>42</v>
@@ -8532,107 +8611,105 @@
         <v>43</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I48" s="13"/>
     </row>
-    <row r="49" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="15" thickBot="1">
       <c r="A49" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="10">
+        <v>44722</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D49" s="2">
+        <v>60</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" thickBot="1">
+      <c r="A50" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B50" s="10">
+        <v>44721</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D50" s="2">
+        <v>30</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="1:9" ht="16" thickBot="1">
+      <c r="A51" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B51" s="10">
         <v>44671</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C51" s="11">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D51" s="2">
         <v>20</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="E51" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F51" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G51" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H51" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="13" t="s">
+      <c r="I51" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="9" t="s">
+    <row r="52" spans="1:9" ht="16" thickBot="1">
+      <c r="A52" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B52" s="10">
         <v>44664</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C52" s="11">
         <v>0.77083333333333337</v>
-      </c>
-      <c r="D50" s="2">
-        <v>20</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I50" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="10">
-        <v>44660</v>
-      </c>
-      <c r="C51" s="11">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D51" s="2">
-        <v>120</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B52" s="10">
-        <v>44657</v>
-      </c>
-      <c r="C52" s="11">
-        <v>0.75</v>
       </c>
       <c r="D52" s="2">
         <v>20</v>
@@ -8644,47 +8721,51 @@
         <v>38</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H52" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="I52" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="15" thickBot="1">
       <c r="A53" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B53" s="10">
-        <v>44632</v>
+        <v>44660</v>
       </c>
       <c r="C53" s="11">
-        <v>0.8125</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D53" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H53" s="12"/>
+        <v>135</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>136</v>
+      </c>
       <c r="I53" s="13"/>
     </row>
-    <row r="54" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="15" thickBot="1">
       <c r="A54" s="9" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B54" s="10">
-        <v>44629</v>
+        <v>44657</v>
       </c>
       <c r="C54" s="11">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D54" s="2">
         <v>20</v>
@@ -8696,290 +8777,288 @@
         <v>38</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>40</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="H54" s="12"/>
       <c r="I54" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="15" thickBot="1">
       <c r="A55" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B55" s="10">
-        <v>44619</v>
+        <v>44632</v>
       </c>
       <c r="C55" s="11">
-        <v>0.58333333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="D55" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>14</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="13"/>
     </row>
-    <row r="56" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="16" thickBot="1">
       <c r="A56" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B56" s="10">
-        <v>44618</v>
+        <v>44629</v>
       </c>
       <c r="C56" s="11">
-        <v>0.72916666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D56" s="2">
         <v>20</v>
       </c>
       <c r="E56" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" thickBot="1">
+      <c r="A57" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="10">
+        <v>44619</v>
+      </c>
+      <c r="C57" s="11">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D57" s="2">
+        <v>40</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" thickBot="1">
+      <c r="A58" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="10">
+        <v>44618</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D58" s="2">
+        <v>20</v>
+      </c>
+      <c r="E58" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F56" s="12" t="s">
+      <c r="F58" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G58" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="13"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="13"/>
     </row>
-    <row r="57" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="9" t="s">
+    <row r="59" spans="1:9" ht="15" thickBot="1">
+      <c r="A59" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="10">
+      <c r="B59" s="10">
         <v>44614</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C59" s="11">
         <v>0.88194444444444453</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D59" s="2">
         <v>34</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="E59" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F59" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="G59" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="13"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="13"/>
     </row>
-    <row r="58" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="9" t="s">
+    <row r="60" spans="1:9" ht="15" thickBot="1">
+      <c r="A60" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="10">
+      <c r="B60" s="10">
         <v>44612</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C60" s="11">
         <v>0.79166666666666663</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D60" s="2">
         <v>60</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F58" s="12" t="s">
+      <c r="E60" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G60" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B59" s="10">
-        <v>44612</v>
-      </c>
-      <c r="C59" s="11">
-        <v>0.6875</v>
-      </c>
-      <c r="D59" s="2">
-        <v>60</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" s="10">
-        <v>44589</v>
-      </c>
-      <c r="C60" s="11">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="H60" s="12"/>
       <c r="I60" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" thickBot="1">
+      <c r="A61" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" s="10">
+        <v>44612</v>
+      </c>
+      <c r="C61" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="D61" s="2">
+        <v>60</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" thickBot="1">
+      <c r="A62" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B62" s="10">
+        <v>44589</v>
+      </c>
+      <c r="C62" s="11">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="9" t="s">
+    <row r="63" spans="1:9" ht="15" thickBot="1">
+      <c r="A63" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B61" s="10">
+      <c r="B63" s="10">
         <v>44586</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C63" s="11">
         <v>0.77083333333333337</v>
       </c>
-      <c r="D61" s="2">
+      <c r="D63" s="2">
         <v>0</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E63" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F61" s="12" t="s">
+      <c r="F63" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G63" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="13"/>
-    </row>
-    <row r="62" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="10">
-        <v>44580</v>
-      </c>
-      <c r="C62" s="11">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D62" s="2">
-        <v>40</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="I62" s="13"/>
-    </row>
-    <row r="63" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="10">
-        <v>44577</v>
-      </c>
-      <c r="C63" s="11">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D63" s="2">
-        <v>60</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>174</v>
-      </c>
+      <c r="H63" s="12"/>
       <c r="I63" s="13"/>
     </row>
-    <row r="64" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" ht="15" thickBot="1">
       <c r="A64" s="9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B64" s="10">
-        <v>44577</v>
+        <v>44580</v>
       </c>
       <c r="C64" s="11">
-        <v>0.5625</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D64" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>42</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I64" s="13"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:9" ht="15" thickBot="1">
       <c r="A65" s="9" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B65" s="10">
         <v>44577</v>
       </c>
       <c r="C65" s="11">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D65" s="2">
         <v>60</v>
@@ -8991,25 +9070,25 @@
         <v>43</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>44</v>
+        <v>173</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>96</v>
+        <v>174</v>
       </c>
       <c r="I65" s="13"/>
     </row>
-    <row r="66" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:9" ht="15" thickBot="1">
       <c r="A66" s="9" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B66" s="10">
-        <v>44576</v>
+        <v>44577</v>
       </c>
       <c r="C66" s="11">
-        <v>0.66666666666666663</v>
+        <v>0.5625</v>
       </c>
       <c r="D66" s="2">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>42</v>
@@ -9018,25 +9097,25 @@
         <v>43</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I66" s="13"/>
     </row>
-    <row r="67" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:9" ht="15" thickBot="1">
       <c r="A67" s="9" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B67" s="10">
-        <v>44572</v>
+        <v>44577</v>
       </c>
       <c r="C67" s="11">
-        <v>0.79166666666666663</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D67" s="2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>42</v>
@@ -9045,151 +9124,153 @@
         <v>43</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="I67" s="13"/>
     </row>
-    <row r="68" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:9" ht="15" thickBot="1">
       <c r="A68" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B68" s="10">
-        <v>44569</v>
+        <v>44576</v>
       </c>
       <c r="C68" s="11">
-        <v>0.86111111111111116</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D68" s="2">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="H68" s="12"/>
-      <c r="I68" s="13" t="s">
-        <v>14</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="I68" s="13"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" ht="15" thickBot="1">
       <c r="A69" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B69" s="10">
-        <v>44568</v>
+        <v>44572</v>
       </c>
       <c r="C69" s="11">
-        <v>0.89583333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="D69" s="2">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H69" s="12"/>
+        <v>183</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="I69" s="13"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="15" thickBot="1">
       <c r="A70" s="9" t="s">
         <v>184</v>
       </c>
       <c r="B70" s="10">
+        <v>44569</v>
+      </c>
+      <c r="C70" s="11">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="D70" s="2">
+        <v>38</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" thickBot="1">
+      <c r="A71" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="10">
         <v>44568</v>
       </c>
-      <c r="C70" s="11">
-        <v>0.70138888888888884</v>
-      </c>
-      <c r="D70" s="2">
-        <v>39</v>
-      </c>
-      <c r="E70" s="12" t="s">
+      <c r="C71" s="11">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="D71" s="2">
+        <v>29</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="13"/>
-    </row>
-    <row r="71" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="10">
-        <v>44490</v>
-      </c>
-      <c r="C71" s="11">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="D71" s="2">
-        <v>43.9</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="F71" s="12" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>194</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="H71" s="12"/>
       <c r="I71" s="13"/>
     </row>
-    <row r="72" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:9" ht="15" thickBot="1">
       <c r="A72" s="9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B72" s="10">
-        <v>44449</v>
+        <v>44568</v>
       </c>
       <c r="C72" s="11">
-        <v>0.83333333333333337</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="D72" s="2">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="H72" s="12"/>
       <c r="I72" s="13"/>
     </row>
-    <row r="73" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:9" ht="15" thickBot="1">
       <c r="A73" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B73" s="10">
-        <v>44442</v>
+        <v>44490</v>
       </c>
       <c r="C73" s="11">
-        <v>0.82638888888888884</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="D73" s="2">
         <v>43.9</v>
@@ -9198,79 +9279,77 @@
         <v>192</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>121</v>
+        <v>43</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>194</v>
       </c>
       <c r="I73" s="13"/>
     </row>
-    <row r="74" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:9" ht="15" thickBot="1">
       <c r="A74" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B74" s="10">
-        <v>44435</v>
+        <v>44449</v>
       </c>
       <c r="C74" s="11">
-        <v>0.81597222222222221</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D74" s="2">
+        <v>23</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="13"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" thickBot="1">
+      <c r="A75" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B75" s="10">
+        <v>44442</v>
+      </c>
+      <c r="C75" s="11">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D75" s="2">
         <v>43.9</v>
       </c>
-      <c r="E74" s="12" t="s">
+      <c r="E75" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="F74" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="10">
-        <v>44428</v>
-      </c>
-      <c r="C75" s="11">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="D75" s="2">
-        <v>23</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="F75" s="12" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H75" s="12"/>
+        <v>197</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>194</v>
+      </c>
       <c r="I75" s="13"/>
     </row>
-    <row r="76" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:9" ht="15" thickBot="1">
       <c r="A76" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B76" s="10">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="C76" s="11">
-        <v>0.87152777777777779</v>
+        <v>0.81597222222222221</v>
       </c>
       <c r="D76" s="2">
         <v>43.9</v>
@@ -9282,215 +9361,213 @@
         <v>43</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="I76" s="13"/>
+        <v>200</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="77" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:9" ht="15" thickBot="1">
       <c r="A77" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B77" s="10">
-        <v>44408</v>
+        <v>44428</v>
       </c>
       <c r="C77" s="11">
-        <v>0.58680555555555558</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="D77" s="2">
-        <v>43.9</v>
+        <v>23</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>194</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H77" s="12"/>
       <c r="I77" s="13"/>
     </row>
-    <row r="78" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:9" ht="15" thickBot="1">
       <c r="A78" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B78" s="10">
-        <v>44100</v>
+        <v>44421</v>
       </c>
       <c r="C78" s="11">
-        <v>0.84027777777777779</v>
+        <v>0.87152777777777779</v>
       </c>
       <c r="D78" s="2">
-        <v>64.5</v>
+        <v>43.9</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="F78" s="12" t="s">
         <v>43</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H78" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="I78" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="I78" s="13"/>
     </row>
-    <row r="79" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" ht="15" thickBot="1">
       <c r="A79" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B79" s="10">
-        <v>43791</v>
+        <v>44408</v>
       </c>
       <c r="C79" s="11">
-        <v>0.92708333333333337</v>
+        <v>0.58680555555555558</v>
       </c>
       <c r="D79" s="2">
-        <v>30</v>
+        <v>43.9</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>209</v>
+        <v>33</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H79" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>194</v>
+      </c>
       <c r="I79" s="13"/>
     </row>
-    <row r="80" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" ht="15" thickBot="1">
       <c r="A80" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="10">
+        <v>44100</v>
+      </c>
+      <c r="C80" s="11">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="D80" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15" thickBot="1">
+      <c r="A81" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" s="10">
+        <v>43791</v>
+      </c>
+      <c r="C81" s="11">
+        <v>0.92708333333333337</v>
+      </c>
+      <c r="D81" s="2">
+        <v>30</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="H81" s="12"/>
+      <c r="I81" s="13"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" thickBot="1">
+      <c r="A82" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B80" s="10">
+      <c r="B82" s="10">
         <v>43771</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C82" s="11">
         <v>0.91319444444444453</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D82" s="2">
         <v>40</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="G80" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="B81" s="10">
-        <v>43672</v>
-      </c>
-      <c r="C81" s="11">
-        <v>0.65277777777777779</v>
-      </c>
-      <c r="D81" s="2">
-        <v>28.9</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I81" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B82" s="10">
-        <v>43655</v>
-      </c>
-      <c r="C82" s="11">
-        <v>0.61111111111111105</v>
-      </c>
-      <c r="D82" s="2">
-        <v>30</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>208</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H82" s="12"/>
       <c r="I82" s="13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:9" ht="15" thickBot="1">
       <c r="A83" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B83" s="10">
-        <v>43652</v>
+        <v>43672</v>
       </c>
       <c r="C83" s="11">
-        <v>0.55555555555555558</v>
+        <v>0.65277777777777779</v>
       </c>
       <c r="D83" s="2">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:9" ht="15" thickBot="1">
       <c r="A84" s="9" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B84" s="10">
-        <v>43635</v>
+        <v>43655</v>
       </c>
       <c r="C84" s="11">
-        <v>0.42708333333333331</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="D84" s="2">
         <v>30</v>
@@ -9499,136 +9576,138 @@
         <v>208</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="H84" s="12" t="s">
-        <v>18</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="H84" s="12"/>
       <c r="I84" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:9" ht="15" thickBot="1">
       <c r="A85" s="9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B85" s="10">
-        <v>43583</v>
+        <v>43652</v>
       </c>
       <c r="C85" s="11">
-        <v>0.73611111111111116</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="D85" s="2">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="E85" s="12" t="s">
         <v>208</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I85" s="13"/>
+      <c r="I85" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="86" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:9" ht="15" thickBot="1">
       <c r="A86" s="9" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B86" s="10">
-        <v>43504</v>
+        <v>43635</v>
       </c>
       <c r="C86" s="11">
-        <v>0.64236111111111105</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="D86" s="2">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="13"/>
+        <v>222</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="87" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" ht="15" thickBot="1">
       <c r="A87" s="9" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B87" s="10">
-        <v>43487</v>
+        <v>43583</v>
       </c>
       <c r="C87" s="11">
-        <v>0.77083333333333337</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="D87" s="2">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>18</v>
       </c>
       <c r="I87" s="13"/>
     </row>
-    <row r="88" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:9" ht="15" thickBot="1">
       <c r="A88" s="9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B88" s="10">
-        <v>43401</v>
+        <v>43504</v>
       </c>
       <c r="C88" s="11">
-        <v>0.77083333333333337</v>
+        <v>0.64236111111111105</v>
       </c>
       <c r="D88" s="2">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>37</v>
+        <v>227</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>38</v>
+        <v>228</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>234</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H88" s="12"/>
       <c r="I88" s="13"/>
     </row>
-    <row r="89" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:9" ht="15" thickBot="1">
       <c r="A89" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B89" s="10">
-        <v>43401</v>
+        <v>43487</v>
       </c>
       <c r="C89" s="11">
-        <v>0.64583333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="D89" s="2">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E89" s="12" t="s">
         <v>37</v>
@@ -9637,27 +9716,25 @@
         <v>38</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="I89" s="13" t="s">
-        <v>237</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="I89" s="13"/>
     </row>
-    <row r="90" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:9" ht="15" thickBot="1">
       <c r="A90" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B90" s="10">
-        <v>43396</v>
+        <v>43401</v>
       </c>
       <c r="C90" s="11">
         <v>0.77083333333333337</v>
       </c>
       <c r="D90" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E90" s="12" t="s">
         <v>37</v>
@@ -9666,52 +9743,54 @@
         <v>38</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="H90" s="12"/>
+        <v>233</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>234</v>
+      </c>
       <c r="I90" s="13"/>
     </row>
-    <row r="91" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:9" ht="15" thickBot="1">
       <c r="A91" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B91" s="10">
-        <v>43379</v>
+        <v>43401</v>
       </c>
       <c r="C91" s="11">
-        <v>0.4375</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D91" s="2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:9" ht="15" thickBot="1">
       <c r="A92" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B92" s="10">
-        <v>43372</v>
+        <v>43396</v>
       </c>
       <c r="C92" s="11">
         <v>0.77083333333333337</v>
       </c>
       <c r="D92" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>37</v>
@@ -9720,120 +9799,174 @@
         <v>38</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H92" s="12"/>
       <c r="I92" s="13"/>
     </row>
-    <row r="93" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:9" ht="15" thickBot="1">
       <c r="A93" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B93" s="10">
-        <v>43336</v>
+        <v>43379</v>
       </c>
       <c r="C93" s="11">
-        <v>0.70486111111111116</v>
+        <v>0.4375</v>
       </c>
       <c r="D93" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>121</v>
       </c>
       <c r="G93" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15" thickBot="1">
+      <c r="A94" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" s="10">
+        <v>43372</v>
+      </c>
+      <c r="C94" s="11">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D94" s="2">
+        <v>10</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="H94" s="12"/>
+      <c r="I94" s="13"/>
+    </row>
+    <row r="95" spans="1:9" ht="15" thickBot="1">
+      <c r="A95" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" s="10">
+        <v>43336</v>
+      </c>
+      <c r="C95" s="11">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D95" s="2">
+        <v>40</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G95" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="H93" s="12" t="s">
+      <c r="H95" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I93" s="13"/>
+      <c r="I95" s="13"/>
     </row>
-    <row r="94" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A94" s="9" t="s">
+    <row r="96" spans="1:9" ht="15" thickBot="1">
+      <c r="A96" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B96" s="10">
         <v>43295</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C96" s="11">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D96" s="2">
         <v>28</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E96" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="F94" s="12" t="s">
+      <c r="F96" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="G94" s="12" t="s">
+      <c r="G96" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="H94" s="12"/>
-      <c r="I94" s="13" t="s">
+      <c r="H96" s="12"/>
+      <c r="I96" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="9" t="s">
+    <row r="97" spans="1:9" ht="15" thickBot="1">
+      <c r="A97" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B95" s="10">
+      <c r="B97" s="10">
         <v>43292</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C97" s="11">
         <v>0.61111111111111105</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D97" s="2">
         <v>28</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E97" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="F95" s="12" t="s">
+      <c r="F97" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="G95" s="12" t="s">
+      <c r="G97" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="H95" s="12" t="s">
+      <c r="H97" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I95" s="13" t="s">
+      <c r="I97" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" s="14" t="s">
+    <row r="98" spans="1:9">
+      <c r="A98" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="B96" s="15">
+      <c r="B98" s="15">
         <v>43279</v>
       </c>
-      <c r="C96" s="16">
+      <c r="C98" s="16">
         <v>0.80208333333333337</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D98" s="3">
         <v>28</v>
       </c>
-      <c r="E96" s="17" t="s">
+      <c r="E98" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="F96" s="17" t="s">
+      <c r="F98" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G98" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="H96" s="17" t="s">
+      <c r="H98" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="I96" s="18" t="s">
+      <c r="I98" s="18" t="s">
         <v>26</v>
       </c>
     </row>
